--- a/AnalysisSummary.xlsx
+++ b/AnalysisSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4464606i\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E17BD84-D82A-426B-8D55-FE6D7FB2A758}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B717B-CA6D-4ACC-9234-1AFC821E960D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{DDC3D8F1-7458-421F-95F1-5ABA0FD69C23}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +90,144 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +240,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -265,12 +574,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,16 +775,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -299,27 +787,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% — акцент1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -655,7 +1193,7 @@
   <dimension ref="K4:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="M20" sqref="M20:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +1214,7 @@
       <c r="L5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -696,19 +1234,19 @@
       <c r="L6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="14">
         <v>72</v>
       </c>
-      <c r="O6" s="5">
-        <f>73</f>
-        <v>73</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="O6" s="4">
+        <f>74</f>
+        <v>74</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" ref="P6:P13" si="0">N6/O6-100%</f>
-        <v>-1.3698630136986356E-2</v>
+        <v>-2.7027027027026973E-2</v>
       </c>
     </row>
     <row r="7" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -718,41 +1256,41 @@
       <c r="L7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="17">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="N7" s="7">
-        <v>363</v>
-      </c>
-      <c r="O7" s="8">
+      <c r="N7" s="12">
+        <v>408</v>
+      </c>
+      <c r="O7" s="6">
         <f>422</f>
         <v>422</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <f t="shared" si="0"/>
-        <v>-0.1398104265402843</v>
+        <v>-3.3175355450236976E-2</v>
       </c>
     </row>
     <row r="8" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>3</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N8" s="7">
-        <v>276</v>
-      </c>
-      <c r="O8" s="8">
+      <c r="N8" s="12">
+        <v>315</v>
+      </c>
+      <c r="O8" s="6">
         <f>326</f>
         <v>326</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <f t="shared" si="0"/>
-        <v>-0.15337423312883436</v>
+        <v>-3.3742331288343586E-2</v>
       </c>
     </row>
     <row r="9" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -762,19 +1300,19 @@
       <c r="L9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="N9" s="7">
-        <v>261</v>
-      </c>
-      <c r="O9" s="8">
+      <c r="N9" s="12">
+        <v>273</v>
+      </c>
+      <c r="O9" s="6">
         <f>251</f>
         <v>251</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
-        <v>3.9840637450199168E-2</v>
+        <v>8.7649402390438169E-2</v>
       </c>
     </row>
     <row r="10" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -784,19 +1322,19 @@
       <c r="L10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="N10" s="7">
-        <v>258</v>
-      </c>
-      <c r="O10" s="8">
+      <c r="N10" s="12">
+        <v>270</v>
+      </c>
+      <c r="O10" s="6">
         <f>282</f>
         <v>282</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
-        <v>-8.5106382978723416E-2</v>
+        <v>-4.2553191489361653E-2</v>
       </c>
     </row>
     <row r="11" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -806,19 +1344,19 @@
       <c r="L11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="17">
         <v>0.108</v>
       </c>
-      <c r="N11" s="7">
-        <v>138</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="N11" s="12">
+        <v>165</v>
+      </c>
+      <c r="O11" s="6">
         <f>159</f>
         <v>159</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <f t="shared" si="0"/>
-        <v>-0.13207547169811318</v>
+        <v>3.7735849056603765E-2</v>
       </c>
     </row>
     <row r="12" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -828,48 +1366,49 @@
       <c r="L12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N12" s="11">
-        <v>177</v>
-      </c>
-      <c r="O12" s="12">
+      <c r="N12" s="16">
+        <v>186</v>
+      </c>
+      <c r="O12" s="8">
         <f>175</f>
         <v>175</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
-        <v>1.1428571428571344E-2</v>
+        <v>6.2857142857142945E-2</v>
       </c>
     </row>
     <row r="13" spans="11:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K13" s="13"/>
-      <c r="L13" s="14" t="s">
+      <c r="K13" s="9"/>
+      <c r="L13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="15"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="1">
         <f>SUM(N6:N12)</f>
-        <v>1545</v>
-      </c>
-      <c r="O13" s="16">
-        <v>1688</v>
-      </c>
-      <c r="P13" s="6">
+        <v>1689</v>
+      </c>
+      <c r="O13" s="19">
+        <f>SUM(O6:O12)</f>
+        <v>1689</v>
+      </c>
+      <c r="P13" s="5">
         <f t="shared" si="0"/>
-        <v>-8.4715639810426513E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P6:P13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="notBetween">
       <formula>-0.05</formula>
       <formula>0.05</formula>
     </cfRule>
